--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_spine_animation_state[骨骼动画枚举_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_spine_animation_state[骨骼动画枚举_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="SpineAnimationState" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -59,6 +59,12 @@
     <t>Idle</t>
   </si>
   <si>
+    <t>Idle2,idle2,wait2,Idle2,idle2,wait2</t>
+  </si>
+  <si>
+    <t>Idle2</t>
+  </si>
+  <si>
     <t>Walk,walk,Walk1,walk1</t>
   </si>
   <si>
@@ -119,6 +125,36 @@
     <t>Attack7</t>
   </si>
   <si>
+    <t>Attack8,attack8</t>
+  </si>
+  <si>
+    <t>Attack8</t>
+  </si>
+  <si>
+    <t>Attack9,attack9</t>
+  </si>
+  <si>
+    <t>Attack9</t>
+  </si>
+  <si>
+    <t>Attack10,attack10</t>
+  </si>
+  <si>
+    <t>Attack10</t>
+  </si>
+  <si>
+    <t>Attack11,attack11</t>
+  </si>
+  <si>
+    <t>Attack11</t>
+  </si>
+  <si>
+    <t>Attack12,attack12</t>
+  </si>
+  <si>
+    <t>Attack12</t>
+  </si>
+  <si>
     <t>Dead,dead,Dead1,dead1</t>
   </si>
   <si>
@@ -128,28 +164,55 @@
     <t>NearDead</t>
   </si>
   <si>
-    <t>Hit</t>
+    <t>Hit,hit</t>
   </si>
   <si>
     <t>Hit//受到攻击</t>
   </si>
   <si>
-    <t>Jump</t>
+    <t>Hit2,hit2</t>
+  </si>
+  <si>
+    <t>Jump,jump</t>
   </si>
   <si>
     <t>Jump,//跳跃</t>
   </si>
   <si>
-    <t>Run,run</t>
+    <t>Run,run,Move,move</t>
   </si>
   <si>
     <t>Run,//泡</t>
   </si>
   <si>
-    <t>Dizzy</t>
+    <t>Run2,run2,Move2,move2</t>
+  </si>
+  <si>
+    <t>Run3,run3,Move3,move3</t>
+  </si>
+  <si>
+    <t>Run4,run4,Move4,move4</t>
+  </si>
+  <si>
+    <t>Run5,run5,Move5,move5</t>
+  </si>
+  <si>
+    <t>Dizzy,dizzy</t>
   </si>
   <si>
     <t>Dizzy,//晕眩</t>
+  </si>
+  <si>
+    <t>Sit,sit,Sit1,sit1,sit_1</t>
+  </si>
+  <si>
+    <t>坐下</t>
+  </si>
+  <si>
+    <t>Sit2,sit2,sit_2</t>
+  </si>
+  <si>
+    <t>Sit3,sit3,sit_3</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1175,7 +1238,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>20001</v>
+        <v>10002</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1186,7 +1249,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1197,7 +1260,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1208,7 +1271,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>30001</v>
+        <v>20003</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1219,7 +1282,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1230,7 +1293,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1241,7 +1304,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1252,7 +1315,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>30005</v>
+        <v>30004</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1263,7 +1326,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>30006</v>
+        <v>30005</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1274,7 +1337,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>30007</v>
+        <v>30006</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -1285,7 +1348,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>40001</v>
+        <v>30007</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1296,67 +1359,218 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>50001</v>
+        <v>30008</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>60001</v>
+        <v>30009</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>70001</v>
+        <v>30010</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
+        <v>30011</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>30012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>40001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>50001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>60001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>60002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>70001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>80001</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" ht="12" customHeight="1" spans="1:3">
-      <c r="A20">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>80002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>80003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>80004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>80005</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" ht="12" customHeight="1" spans="1:3">
+      <c r="A31">
         <v>90001</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" ht="12" customHeight="1" spans="1:3">
+      <c r="A32">
+        <v>100001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" ht="12" customHeight="1" spans="1:3">
+      <c r="A33">
+        <v>100002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" ht="12" customHeight="1" spans="1:3">
+      <c r="A34">
+        <v>100003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" ht="12" customHeight="1"/>
+    <row r="36" ht="12" customHeight="1"/>
+    <row r="37" ht="12" customHeight="1"/>
+    <row r="38" ht="12" customHeight="1"/>
+    <row r="39" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>
